--- a/resources/experiment 2/metrics/MAPE/average time/Retinopatía de fondo.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Retinopatía de fondo.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7554123858867933</v>
+        <v>7554123858867932</v>
       </c>
       <c r="C2" t="n">
         <v>7554123858867933</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08023776323767602</v>
+        <v>0.01282841001456107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08023776323767602</v>
+        <v>0.01307048106583435</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08023776323767602</v>
+        <v>149428882609795.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121102110434581.3</v>
+        <v>0.01355165461992512</v>
       </c>
       <c r="C4" t="n">
-        <v>121102110434581.3</v>
+        <v>0.01464076978721899</v>
       </c>
       <c r="D4" t="n">
-        <v>121102110434581.3</v>
+        <v>80091477075694.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3516687677132196</v>
+        <v>69492622709956.71</v>
       </c>
       <c r="C5" t="n">
-        <v>3516687677132196</v>
+        <v>113134339237962.3</v>
       </c>
       <c r="D5" t="n">
-        <v>3516687677132196</v>
+        <v>244414718392994.9</v>
       </c>
     </row>
   </sheetData>
